--- a/HV_Indicator_BOM.xlsx
+++ b/HV_Indicator_BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\5_GitSTUFF\0003_LART\2023_2024\00_Voltage_Indicator\T24_VoltageIndicator_Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A94161-3E33-4FC2-891D-5F067E0484BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BFEFE5-83AA-4E45-BEB3-656D68EC6280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{B5CF2FEA-C849-469C-88BC-1F915CBFFC5D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B5CF2FEA-C849-469C-88BC-1F915CBFFC5D}"/>
   </bookViews>
   <sheets>
     <sheet name="HV_Indicator_BOM" sheetId="1" r:id="rId1"/>
@@ -701,7 +701,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
